--- a/target/classes/data.xlsx
+++ b/target/classes/data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="passenger" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,18 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>demo</t>
   </si>
   <si>
-    <t>12#</t>
-  </si>
-  <si>
-    <t>$%#</t>
+    <t>ruhan</t>
+  </si>
+  <si>
+    <t>uddin</t>
+  </si>
+  <si>
+    <t>Bland</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>rahim</t>
+  </si>
+  <si>
+    <t>1325 Dhaka</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>1325 Chittagong</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>P4370</t>
   </si>
 </sst>
 </file>
@@ -348,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,20 +395,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>123456789</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>2019</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
